--- a/Kiwi.xlsx
+++ b/Kiwi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Desktop\ProjetoDevOps-Kiwi-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A7AF2D-F197-4CC1-8B79-B35A8B104049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD1A58C-7545-4E2F-8DD2-7B940B762F61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{0D6A2535-9E98-4753-AC86-E97833E826C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{0D6A2535-9E98-4753-AC86-E97833E826C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Estórias" sheetId="2" r:id="rId1"/>
@@ -423,396 +423,6 @@
 RM:82458-Thiago Pintor</t>
   </si>
   <si>
-    <r>
-      <t>Número da estória:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Número da tarefa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 01 Criar Tela de retirada de produto.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Prioridade: 01
-Responsável: 
-Data Térmno: 24/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Número da estória:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 02
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Número da tarefa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 01 Criar Tela fornecedor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Prioridade: 02
-Responsável: 
-Data Térmno: 24/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Número da estória:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 02
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Número da tarefa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 02-Criar back fornecedor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Prioridade: 02
-Responsável: 
-Data Térmno: 24/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Número da estória:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Número da tarefa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 02 Criar Back-end </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Prioridade: 01
-Responsável: 
-Data Térmno: 24/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Número da estória:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 04
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Número da tarefa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 01 Criar menu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Prioridade: 04
-Responsável:
-Data Térmno: 24/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Número da estória:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 03
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Número da tarefa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 02 Criar back do cadastro do fornecedor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Prioridade: 03
-Responsável: 
-Data Térmno: 24/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Número da estória:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 05 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Número da tarefa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 01 Criar tela de relatório </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Prioridade: 05
-Responsável:
-Data Térmno: 24/03</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Número da estória:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 05 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Número da tarefa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 02 Criar back de relatório </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Prioridade: 05
-Responsável:
-Data Térmno: 24/03</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Como um responsável pela gestão de estoque, preciso de 
 uma tela onde possa controlar os estoques, , entrada  (fornecedor) e saída de produtos (funcionarios), ex: papel, caneta, tinta, carimbo. </t>
   </si>
@@ -867,12 +477,68 @@
 Responsável:Thiago
 Data Término:03/03</t>
   </si>
+  <si>
+    <t>Número da estória: 01
+Número da tarefa: 02 Criar Back-end 
+Prioridade: 01
+Responsável: Thiago,Luiz,Guilherme
+Data Término: 24/03</t>
+  </si>
+  <si>
+    <t>Número da estória: 01
+Número da tarefa: 01 Criar Tela de retirada de produto.
+Prioridade: 01
+Responsável: Claudia
+Data Término: 24/03</t>
+  </si>
+  <si>
+    <t>Número da estória: 02
+Número da tarefa: 02-Criar back fornecedor
+Prioridade: 02
+Responsável: Luiz,Guilherme,Thiago
+Data Térmno: 24/03</t>
+  </si>
+  <si>
+    <t>Número da estória: 02
+Número da tarefa: 01 Criar Tela fornecedor
+Prioridade: 02
+Responsável: 
+Data Térmno: 24/03</t>
+  </si>
+  <si>
+    <t>Número da estória: 03
+Número da tarefa: 02 Criar back do cadastro do fornecedor 
+Prioridade: 03
+Responsável: Thiago,Guilherme,Luiz
+Data Térmno: 24/03</t>
+  </si>
+  <si>
+    <t>Número da estória: 04
+Número da tarefa: 01 Criar menu
+Prioridade: 04
+Responsável:
+Data Térmno: 24/03</t>
+  </si>
+  <si>
+    <t>Número da estória: 05 
+Número da tarefa: 01 Criar tela de relatório 
+Prioridade: 05
+Responsável:
+Data Térmno: 24/03</t>
+  </si>
+  <si>
+    <t>Número da estória: 05 
+Número da tarefa: 02 Criar back de relatório 
+Prioridade: 05
+Responsável:
+Data Térmno: 24/03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,12 +583,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1050,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1105,6 +765,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,14 +783,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>14</v>
@@ -1513,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>18</v>
@@ -1706,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C095BD1-AFFD-4F7D-AF0B-D4F8BF2A1E25}">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1722,13 +1388,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -1750,19 +1416,19 @@
     <row r="4" spans="2:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="24" t="s">
-        <v>38</v>
+      <c r="F4" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="24" t="s">
-        <v>39</v>
+      <c r="D5" s="20"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -1770,8 +1436,8 @@
       <c r="C6" s="16"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="24" t="s">
-        <v>40</v>
+      <c r="F6" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -1779,8 +1445,8 @@
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="24" t="s">
-        <v>41</v>
+      <c r="F7" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="105" x14ac:dyDescent="0.25">
@@ -1788,8 +1454,8 @@
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="24" t="s">
-        <v>42</v>
+      <c r="F8" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="90" x14ac:dyDescent="0.25">
@@ -1797,8 +1463,8 @@
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="24" t="s">
-        <v>43</v>
+      <c r="F9" s="21" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="75" x14ac:dyDescent="0.25">
@@ -1860,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941EF69F-4108-4D36-AA68-9F67CB5EEF1F}">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1876,13 +1542,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -1902,74 +1568,74 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="B5" s="12"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="12"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="16"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="16"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="20"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
@@ -2058,13 +1724,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
